--- a/output/summarystats.xlsx
+++ b/output/summarystats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\data_wrangle_malawi\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8FE897-C917-4CA0-A191-1363245DF2C9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D9E7F3-37B8-4FBD-95BD-46B88212B4D1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805" xr2:uid="{279BA1A0-3798-47F9-8527-FB0C290D6037}"/>
   </bookViews>
@@ -252,29 +252,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,7 +593,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,34 +646,34 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>994.51369999999997</v>
+        <v>0.99451369999999994</v>
       </c>
       <c r="C2" s="1">
-        <v>993.92693999999995</v>
+        <v>0.99392693999999993</v>
       </c>
       <c r="D2" s="1">
-        <v>190.43365779999999</v>
+        <v>0.19043365779999999</v>
       </c>
       <c r="E2" s="1">
-        <v>510.17261000000002</v>
+        <v>0.51017261000000003</v>
       </c>
       <c r="F2" s="1">
-        <v>1580.3001999999999</v>
+        <v>1.5803001999999999</v>
       </c>
       <c r="G2" s="1">
-        <v>945.90076524999995</v>
+        <v>0.94590076525</v>
       </c>
       <c r="H2" s="1">
-        <v>909.76211499999999</v>
+        <v>0.90976211500000004</v>
       </c>
       <c r="I2" s="1">
-        <v>161.42989218</v>
+        <v>0.16142989218000001</v>
       </c>
       <c r="J2" s="1">
-        <v>594.99267999999995</v>
+        <v>0.59499267999999994</v>
       </c>
       <c r="K2" s="1">
-        <v>1527.7244000000001</v>
+        <v>1.5277244000000001</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1206,34 +1206,34 @@
         <v>21</v>
       </c>
       <c r="B18" s="1">
-        <v>867.51520000000005</v>
+        <v>0.86751520000000004</v>
       </c>
       <c r="C18" s="1">
-        <v>897.28125</v>
+        <v>0.89728125000000003</v>
       </c>
       <c r="D18" s="1">
-        <v>349.23689030000003</v>
+        <v>0.34923689030000005</v>
       </c>
       <c r="E18" s="1">
-        <v>44.400002000000001</v>
+        <v>4.4400002000000001E-2</v>
       </c>
       <c r="F18" s="1">
-        <v>1727.0667000000001</v>
+        <v>1.7270667000000002</v>
       </c>
       <c r="G18" s="1">
-        <v>935.22679607999999</v>
+        <v>0.93522679608000003</v>
       </c>
       <c r="H18" s="1">
-        <v>1019.57895</v>
+        <v>1.0195789499999999</v>
       </c>
       <c r="I18" s="1">
-        <v>286.4665286</v>
+        <v>0.28646652859999999</v>
       </c>
       <c r="J18" s="1">
-        <v>117.05882</v>
+        <v>0.11705881999999999</v>
       </c>
       <c r="K18" s="1">
-        <v>1551.25</v>
+        <v>1.55125</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1430,21 +1430,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10"/>
-      <c r="B1" s="4">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5">
         <v>2010</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7"/>
       <c r="G1" s="8">
         <v>2013</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1465,19 +1465,19 @@
       <c r="F2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1500,19 +1500,19 @@
       <c r="F3" s="2">
         <v>1580.3</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="3">
         <v>945.90099999999995</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="3">
         <v>909.76199999999994</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="3">
         <v>161.43</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="3">
         <v>594.99300000000005</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="3">
         <v>1527.7239999999999</v>
       </c>
     </row>
@@ -1535,19 +1535,19 @@
       <c r="F4" s="2">
         <v>80</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="3">
         <v>48.417000000000002</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="3">
         <v>53</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="3">
         <v>15.175000000000001</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="3">
         <v>6</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="3">
         <v>79</v>
       </c>
     </row>
@@ -1570,19 +1570,19 @@
       <c r="F5" s="2">
         <v>48</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="3">
         <v>23.5</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="3">
         <v>24</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="3">
         <v>6.3970000000000002</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="3">
         <v>11</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="3">
         <v>31</v>
       </c>
     </row>
@@ -1605,19 +1605,19 @@
       <c r="F6" s="2">
         <v>341.29</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="3">
         <v>1.0449999999999999</v>
       </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
         <v>5.7949999999999999</v>
       </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6">
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
         <v>53.238</v>
       </c>
     </row>
@@ -1640,19 +1640,19 @@
       <c r="F7" s="2">
         <v>4.125</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="3">
         <v>0.93799999999999994</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="3">
         <v>0.70299999999999996</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="3">
         <v>0.71099999999999997</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="3">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="3">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -1675,19 +1675,19 @@
       <c r="F8" s="2">
         <v>5.1929999999999996</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="3">
         <v>4.5679999999999996</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="3">
         <v>4.5549999999999997</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="3">
         <v>0.14099999999999999</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="3">
         <v>4.2</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="3">
         <v>4.9180000000000001</v>
       </c>
     </row>
@@ -1710,19 +1710,19 @@
       <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="3">
         <v>0.42899999999999999</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="3">
         <v>0.36199999999999999</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="3">
         <v>0.33500000000000002</v>
       </c>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6">
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1745,19 +1745,19 @@
       <c r="F10" s="2">
         <v>1</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="3">
         <v>0.45900000000000002</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="3">
         <v>0.4</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="3">
         <v>0.27400000000000002</v>
       </c>
-      <c r="J10" s="6">
-        <v>0</v>
-      </c>
-      <c r="K10" s="6">
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1780,19 +1780,19 @@
       <c r="F11" s="2">
         <v>7.1879999999999997</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="3">
         <v>4.9950000000000001</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="3">
         <v>4.8949999999999996</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="3">
         <v>0.71699999999999997</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="3">
         <v>3.5790000000000002</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="3">
         <v>7.5259999999999998</v>
       </c>
     </row>
@@ -1815,19 +1815,19 @@
       <c r="F12" s="2">
         <v>56.375</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="3">
         <v>42.567</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="3">
         <v>42.368000000000002</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="3">
         <v>4.0609999999999999</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="3">
         <v>33.625</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="3">
         <v>56.188000000000002</v>
       </c>
     </row>
@@ -1850,19 +1850,19 @@
       <c r="F13" s="2">
         <v>1.6879999999999999</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="3">
         <v>1.2310000000000001</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="3">
         <v>1.222</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="3">
         <v>0.104</v>
       </c>
-      <c r="J13" s="6">
-        <v>1</v>
-      </c>
-      <c r="K13" s="6">
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3">
         <v>1.5</v>
       </c>
     </row>
@@ -1885,19 +1885,19 @@
       <c r="F14" s="2">
         <v>1.0489999999999999</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="3">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="3">
         <v>-0.30099999999999999</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="3">
         <v>0.54300000000000004</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="3">
         <v>-0.30099999999999999</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="3">
         <v>2.9420000000000002</v>
       </c>
     </row>
@@ -1920,19 +1920,19 @@
       <c r="F15" s="2">
         <v>56.188000000000002</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="3">
         <v>7.6710000000000003</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="3">
         <v>4.1829999999999998</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="3">
         <v>8.3960000000000008</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="3">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="3">
         <v>44.682000000000002</v>
       </c>
     </row>
@@ -1955,19 +1955,19 @@
       <c r="F16" s="2">
         <v>37.32</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="3">
         <v>7.8090000000000002</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="3">
         <v>6.2359999999999998</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="3">
         <v>5.0449999999999999</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="3">
         <v>1.2</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="3">
         <v>32.889000000000003</v>
       </c>
     </row>
@@ -1990,19 +1990,19 @@
       <c r="F17" s="2">
         <v>1</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="3">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="H17" s="6">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6">
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="J17" s="6">
-        <v>0</v>
-      </c>
-      <c r="K17" s="6">
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>0.55800000000000005</v>
       </c>
     </row>
@@ -2025,19 +2025,19 @@
       <c r="F18" s="2">
         <v>1</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="3">
         <v>0.27200000000000002</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="3">
         <v>0.05</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="3">
         <v>0.38700000000000001</v>
       </c>
-      <c r="J18" s="6">
-        <v>0</v>
-      </c>
-      <c r="K18" s="6">
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2060,19 +2060,19 @@
       <c r="F19" s="2">
         <v>1727.067</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="3">
         <v>935.22699999999998</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="3">
         <v>1019.579</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="3">
         <v>286.46699999999998</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="3">
         <v>117.059</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="3">
         <v>1551.25</v>
       </c>
     </row>
@@ -2095,19 +2095,19 @@
       <c r="F20" s="2">
         <v>4.5220000000000002</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="3">
         <v>3.8610000000000002</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="3">
         <v>3.8540000000000001</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="3">
         <v>0.186</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="3">
         <v>3.4239999999999999</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="3">
         <v>4.43</v>
       </c>
     </row>
@@ -2130,19 +2130,19 @@
       <c r="F21" s="2">
         <v>17.25</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="3">
         <v>4.2610000000000001</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="3">
         <v>3.7010000000000001</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="3">
         <v>2.657</v>
       </c>
-      <c r="J21" s="6">
-        <v>0</v>
-      </c>
-      <c r="K21" s="6">
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>16.277999999999999</v>
       </c>
     </row>
@@ -2165,19 +2165,19 @@
       <c r="F22" s="2">
         <v>6.75</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="3">
         <v>5.5549999999999997</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="3">
         <v>5.55</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="3">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="3">
         <v>4.0949999999999998</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="3">
         <v>6.8570000000000002</v>
       </c>
     </row>
@@ -2200,19 +2200,19 @@
       <c r="F23" s="2">
         <v>3</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="3">
         <v>1.075</v>
       </c>
-      <c r="H23" s="6">
-        <v>1</v>
-      </c>
-      <c r="I23" s="6">
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3">
         <v>0.28199999999999997</v>
       </c>
-      <c r="J23" s="6">
-        <v>1</v>
-      </c>
-      <c r="K23" s="6">
+      <c r="J23" s="3">
+        <v>1</v>
+      </c>
+      <c r="K23" s="3">
         <v>3</v>
       </c>
     </row>
@@ -2235,19 +2235,19 @@
       <c r="F24" s="2">
         <v>2</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="3">
         <v>1.038</v>
       </c>
-      <c r="H24" s="6">
-        <v>1</v>
-      </c>
-      <c r="I24" s="6">
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3">
         <v>0.192</v>
       </c>
-      <c r="J24" s="6">
-        <v>1</v>
-      </c>
-      <c r="K24" s="6">
+      <c r="J24" s="3">
+        <v>1</v>
+      </c>
+      <c r="K24" s="3">
         <v>2</v>
       </c>
     </row>
